--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_24</t>
+          <t>model_7_6_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9989995969029137</v>
+        <v>0.9999653025282678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9984553055394199</v>
+        <v>0.9991153945292199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9987514520219735</v>
+        <v>0.9998864918693289</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9985024414324981</v>
+        <v>0.9999780877317119</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9989046532682594</v>
+        <v>0.9999601377765091</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009338323785092073</v>
+        <v>3.238856681902716e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001441904474701171</v>
+        <v>0.0008257403772807378</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001006007634385682</v>
+        <v>3.844045266385517e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001556768166200663</v>
+        <v>2.698859969266458e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005808422255028739</v>
+        <v>3.271452617825988e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003600184530130572</v>
+        <v>0.0006064381882262559</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03055867108545801</v>
+        <v>0.005691095397111804</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02400967433007</v>
+        <v>1.000832739321574</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03185961697873575</v>
+        <v>0.005933377110358415</v>
       </c>
       <c r="P2" t="n">
-        <v>63.95242720421132</v>
+        <v>70.67541014679463</v>
       </c>
       <c r="Q2" t="n">
-        <v>94.42432282591633</v>
+        <v>101.1473057684996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_23</t>
+          <t>model_7_6_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9989792774713314</v>
+        <v>0.999964593149033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984382091201633</v>
+        <v>0.9991151951337007</v>
       </c>
       <c r="D3" t="n">
-        <v>0.998724238167091</v>
+        <v>0.9998849355000354</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9984806856936601</v>
+        <v>0.9999773870468918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9988818456336618</v>
+        <v>0.9999592908751136</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000952799675971356</v>
+        <v>3.305074119661909e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001457863231631033</v>
+        <v>0.000825926504245466</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001027934982196592</v>
+        <v>3.896752979743682e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001579384070773621</v>
+        <v>2.785160948581169e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005929366946369769</v>
+        <v>3.340956964162425e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003636199194908117</v>
+        <v>0.0006136485320567088</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03086745334444285</v>
+        <v>0.005748977404427599</v>
       </c>
       <c r="N3" t="n">
-        <v>1.024497340688046</v>
+        <v>1.000849764423209</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03218154473775296</v>
+        <v>0.005993723274557917</v>
       </c>
       <c r="P3" t="n">
-        <v>63.91221176000737</v>
+        <v>70.63493313078804</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.38410738171238</v>
+        <v>101.1068287524931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_22</t>
+          <t>model_7_6_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9989585493223859</v>
+        <v>0.9999638601750225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984207093220276</v>
+        <v>0.9991150747636062</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9986964631821389</v>
+        <v>0.9998831386664032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9984586738344934</v>
+        <v>0.9999766730545704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9988585865872437</v>
+        <v>0.999958384374106</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0009721484931513992</v>
+        <v>3.373494026149637e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001474198525038413</v>
+        <v>0.0008260388644451307</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001050314456112358</v>
+        <v>3.957604213727639e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001602266222011884</v>
+        <v>2.873100967808711e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0006052705391567734</v>
+        <v>3.415352590768175e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00367256137855506</v>
+        <v>0.0006209825780855384</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03117929590531831</v>
+        <v>0.005808178738769699</v>
       </c>
       <c r="N4" t="n">
-        <v>1.024994816262738</v>
+        <v>1.000867355799461</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03250666308204799</v>
+        <v>0.006055444932266616</v>
       </c>
       <c r="P4" t="n">
-        <v>63.87200398888041</v>
+        <v>70.59395290940644</v>
       </c>
       <c r="Q4" t="n">
-        <v>94.34389961058542</v>
+        <v>101.0658485311115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_21</t>
+          <t>model_7_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9989373907332713</v>
+        <v>0.9999630938126183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9984027890968007</v>
+        <v>0.9991149359974203</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9986680979324509</v>
+        <v>0.9998812328658749</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9984362896860622</v>
+        <v>0.9999759094482354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9988348426079278</v>
+        <v>0.9999574181608837</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0009918991073352282</v>
+        <v>3.445030592649477e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001490926268680728</v>
+        <v>0.0008261683965884885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001073169531159129</v>
+        <v>4.022145700368786e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001625535381870643</v>
+        <v>2.967151777272462e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006178615346730967</v>
+        <v>3.494648738820624e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003709314613935666</v>
+        <v>0.0006285708189311197</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03149442978266519</v>
+        <v>0.00586943829735817</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02550262240149</v>
+        <v>1.000885748497161</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03283521286097058</v>
+        <v>0.006119312437088967</v>
       </c>
       <c r="P5" t="n">
-        <v>63.83177832433427</v>
+        <v>70.5519853604788</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.30367394603928</v>
+        <v>101.0238809821838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_20</t>
+          <t>model_7_6_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9989158031731407</v>
+        <v>0.9999606296539504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9983844573864427</v>
+        <v>0.999114915837108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9986390823836873</v>
+        <v>0.9998740339785347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9984135621623719</v>
+        <v>0.999973468710551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9988105709198813</v>
+        <v>0.9999541013566094</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001012050147132759</v>
+        <v>3.675048987888897e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001508038115630861</v>
+        <v>0.0008261872153551067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001096548579530466</v>
+        <v>4.265941881664578e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001649161493159757</v>
+        <v>3.26776918234328e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006307323644232206</v>
+        <v>3.766855532003929e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003746437192979053</v>
+        <v>0.0006521794074054257</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03181273561221604</v>
+        <v>0.006062218230886197</v>
       </c>
       <c r="N6" t="n">
-        <v>1.026020723844624</v>
+        <v>1.000944888305191</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03316706962866932</v>
+        <v>0.006320299411496758</v>
       </c>
       <c r="P6" t="n">
-        <v>63.79155431368365</v>
+        <v>70.42271800471295</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.26344993538866</v>
+        <v>100.894613626418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_19</t>
+          <t>model_7_6_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.998893761605942</v>
+        <v>0.9999623158787401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9983656944517765</v>
+        <v>0.9991148427001678</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9986094306468608</v>
+        <v>0.9998791886843018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9983904682983409</v>
+        <v>0.99997513350475</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99878577999269</v>
+        <v>0.999956414138548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001032624982599685</v>
+        <v>3.517647305441234e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001525552491544195</v>
+        <v>0.0008262554854783569</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00112044023138935</v>
+        <v>4.091373573766255e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001673168428940517</v>
+        <v>3.062722111835173e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006438785371417007</v>
+        <v>3.577047842800714e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003783951990032517</v>
+        <v>0.0006361353745579143</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03213448276539838</v>
+        <v>0.005930975725326511</v>
       </c>
       <c r="N7" t="n">
-        <v>1.026549721457392</v>
+        <v>1.000904418910238</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03350251422427105</v>
+        <v>0.006183469640765957</v>
       </c>
       <c r="P7" t="n">
-        <v>63.75130238386434</v>
+        <v>70.5102661559223</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.22319800556936</v>
+        <v>100.9821617776273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_18</t>
+          <t>model_7_6_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9988712772608862</v>
+        <v>0.9999615055044544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983464816750028</v>
+        <v>0.9991148419218938</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9985791630510021</v>
+        <v>0.9998767868293721</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9983672478377225</v>
+        <v>0.9999743429546526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9987605087700155</v>
+        <v>0.9999553253585859</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001053613131760637</v>
+        <v>3.593292187873982e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001543486775318943</v>
+        <v>0.0008262562119630091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001144828106780841</v>
+        <v>4.172714346615612e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000169730696661098</v>
+        <v>3.160091493379746e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006572794017209694</v>
+        <v>3.666402919997679e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003821835056327673</v>
+        <v>0.0006438661406907858</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03245940744623409</v>
+        <v>0.005994407550270487</v>
       </c>
       <c r="N8" t="n">
-        <v>1.027089345738731</v>
+        <v>1.000923867893095</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03384127162145675</v>
+        <v>0.006249601889819777</v>
       </c>
       <c r="P8" t="n">
-        <v>63.71105988781376</v>
+        <v>70.46771327744388</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.18295550951878</v>
+        <v>100.9396088991489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_17</t>
+          <t>model_7_6_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9988483481553977</v>
+        <v>0.9999675584225446</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9983268422302988</v>
+        <v>0.9991146877686148</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9985482753700607</v>
+        <v>0.9998941234801709</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9983436930464485</v>
+        <v>0.999980187579995</v>
       </c>
       <c r="F9" t="n">
-        <v>0.998734733679628</v>
+        <v>0.999963288064422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001075016445262718</v>
+        <v>3.028278853391867e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001561819334878178</v>
+        <v>0.0008264001072824677</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001169715610811358</v>
+        <v>3.585594551370162e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001721793053507598</v>
+        <v>2.440228758740752e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006709474580810588</v>
+        <v>3.012911655055457e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003860064031582386</v>
+        <v>0.0005833085065399322</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0327874434084562</v>
+        <v>0.005502979968518754</v>
       </c>
       <c r="N9" t="n">
-        <v>1.027639644270455</v>
+        <v>1.00077859785893</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03418327275371871</v>
+        <v>0.005737253218517539</v>
       </c>
       <c r="P9" t="n">
-        <v>63.67083863920143</v>
+        <v>70.80986208405253</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.14273426090645</v>
+        <v>101.2817577057575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_16</t>
+          <t>model_7_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9988249461720162</v>
+        <v>0.9999668731805215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9983067465496354</v>
+        <v>0.9991146772156718</v>
       </c>
       <c r="D10" t="n">
-        <v>0.998516679928008</v>
+        <v>0.9998923293272254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9983197671893693</v>
+        <v>0.9999795435256548</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9987083845106991</v>
+        <v>0.9999624345968908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001096861169521013</v>
+        <v>3.092243188391801e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001580577770679004</v>
+        <v>0.0008264099579914875</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001195173387746112</v>
+        <v>3.646355001714436e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000174666487719344</v>
+        <v>2.519554753389047e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006849199377327279</v>
+        <v>3.082954877551742e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003898699137044583</v>
+        <v>0.0005904666833227138</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03311889444895486</v>
+        <v>0.00556079417744606</v>
       </c>
       <c r="N10" t="n">
-        <v>1.028201291871611</v>
+        <v>1.000795043667485</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03452883435120964</v>
+        <v>0.005797528698010791</v>
       </c>
       <c r="P10" t="n">
-        <v>63.63060532074646</v>
+        <v>70.76805737299928</v>
       </c>
       <c r="Q10" t="n">
-        <v>94.10250094245147</v>
+        <v>101.2399529947043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_15</t>
+          <t>model_7_6_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9988010715920136</v>
+        <v>0.9999682301834588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982861786257912</v>
+        <v>0.9991146662150721</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9984844175756886</v>
+        <v>0.9998959581114156</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9982957054262511</v>
+        <v>0.9999808112820022</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9986815153486257</v>
+        <v>0.999964134611572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001119147041980555</v>
+        <v>2.965572920744786e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001599777024760023</v>
+        <v>0.0008264202265685331</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001221168522340611</v>
+        <v>3.523463270465589e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001771677980291927</v>
+        <v>2.363409492107526e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006991681601849021</v>
+        <v>2.943436381286557e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00393771467248438</v>
+        <v>0.0005762287772402156</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03345365513633085</v>
+        <v>0.005445707411112707</v>
       </c>
       <c r="N11" t="n">
-        <v>1.028774281791674</v>
+        <v>1.000762475596988</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03487784649409738</v>
+        <v>0.005677542449772178</v>
       </c>
       <c r="P11" t="n">
-        <v>63.59037690695369</v>
+        <v>70.85171044655894</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.06227252865871</v>
+        <v>101.323606068264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_14</t>
+          <t>model_7_6_7</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9987767086374307</v>
+        <v>0.9999661841050846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9982651391625583</v>
+        <v>0.9991146100233789</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9984514189898827</v>
+        <v>0.9998906232139316</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9982712169141222</v>
+        <v>0.9999788822723241</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9986540450187554</v>
+        <v>0.9999615863883067</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001141888790673524</v>
+        <v>3.156565355724985e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001619416440162262</v>
+        <v>0.0008264726790475484</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001247756871229898</v>
+        <v>3.704133917568361e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000179713470495518</v>
+        <v>2.600999089514304e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0007137351708627078</v>
+        <v>3.152566503541332e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00397712368859477</v>
+        <v>0.0005975785971855785</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03379184503210092</v>
+        <v>0.005618331919462382</v>
       </c>
       <c r="N12" t="n">
-        <v>1.029358992701662</v>
+        <v>1.000811581477969</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03523043383387998</v>
+        <v>0.005857515940824293</v>
       </c>
       <c r="P12" t="n">
-        <v>63.55014310737348</v>
+        <v>70.72688188246939</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.0220387290785</v>
+        <v>101.1987775041744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_13</t>
+          <t>model_7_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9987518661100151</v>
+        <v>0.9999689318843928</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9982436160676977</v>
+        <v>0.9991143073188594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9984177628375395</v>
+        <v>0.9998985186294826</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9982464102260753</v>
+        <v>0.9999814342320641</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9986260439288198</v>
+        <v>0.9999651303632646</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001165078199555063</v>
+        <v>2.900072218662926e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001639507304459939</v>
+        <v>0.0008267552404292211</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001274875049143085</v>
+        <v>3.436749241284552e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001822922185390547</v>
+        <v>2.286682840058421e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007285836338410698</v>
+        <v>2.861716040671486e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004016902066777576</v>
+        <v>0.0005687578608140228</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03413324185533895</v>
+        <v>0.005385231860062226</v>
       </c>
       <c r="N13" t="n">
-        <v>1.029955213359638</v>
+        <v>1.000745634774572</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0355863646266721</v>
+        <v>0.00561449232931183</v>
       </c>
       <c r="P13" t="n">
-        <v>63.50993414027119</v>
+        <v>70.89637965060132</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.9818297619762</v>
+        <v>101.3682752723063</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9987264879808896</v>
+        <v>0.9999695948087723</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9982215803903253</v>
+        <v>0.9991141529655251</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9983833524421836</v>
+        <v>0.9999005082606183</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9982212748743121</v>
+        <v>0.9999820363298776</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9985974376027777</v>
+        <v>0.9999659926793542</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001188767569122608</v>
+        <v>2.838191137738184e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001660076642032657</v>
+        <v>0.0008268993224915417</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001302600952383894</v>
+        <v>3.369368762870418e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001849051324056841</v>
+        <v>2.212524488887875e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007437530423947893</v>
+        <v>2.790946625879146e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004057131694455556</v>
+        <v>0.0005616571633566305</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03447850880073859</v>
+        <v>0.005327467632692088</v>
       </c>
       <c r="N14" t="n">
-        <v>1.03056428845865</v>
+        <v>1.000729724589464</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03594633030073851</v>
+        <v>0.00555426895919411</v>
       </c>
       <c r="P14" t="n">
-        <v>63.46967632944127</v>
+        <v>70.93951707810115</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.94157195114629</v>
+        <v>101.4114126998062</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_11</t>
+          <t>model_7_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9987006050381853</v>
+        <v>0.9999702505444873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9981990594563308</v>
+        <v>0.9991140006928573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9983481848908941</v>
+        <v>0.9999025163564702</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9981956785517805</v>
+        <v>0.9999826341848912</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9985682108591899</v>
+        <v>0.9999668556214496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001212928160007231</v>
+        <v>2.776981087093744e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001681098945361752</v>
+        <v>0.000827041462342921</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001330936928015232</v>
+        <v>3.30136296180226e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001875659659085491</v>
+        <v>2.138888709044198e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0007592514469618903</v>
+        <v>2.720125835423229e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004097737176606433</v>
+        <v>0.000554437119776105</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03482711816971412</v>
+        <v>0.005269706905600865</v>
       </c>
       <c r="N15" t="n">
-        <v>1.031185479083554</v>
+        <v>1.000713986932305</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03630978069227221</v>
+        <v>0.005494049238369425</v>
       </c>
       <c r="P15" t="n">
-        <v>63.42943575165993</v>
+        <v>70.98312213444393</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.90133137336494</v>
+        <v>101.4550177561489</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_10</t>
+          <t>model_7_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9986742130587318</v>
+        <v>0.9999708793143879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9981760172235722</v>
+        <v>0.9991138181855732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9983123179458849</v>
+        <v>0.9999044227397446</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9981699904945533</v>
+        <v>0.9999831960405706</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9985384437733561</v>
+        <v>0.999967670564325</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001237563914352971</v>
+        <v>2.718288176851175e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0017026078582048</v>
+        <v>0.0008272118248814555</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001359836434591039</v>
+        <v>3.236801739989928e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001902363355762616</v>
+        <v>2.069686845414977e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007750363850836503</v>
+        <v>2.653244292702452e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00413872792767243</v>
+        <v>0.0005475014216837878</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0351790266260022</v>
+        <v>0.0052137205303422</v>
       </c>
       <c r="N16" t="n">
-        <v>1.031818886590436</v>
+        <v>1.000698896454691</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03667667062009539</v>
+        <v>0.005435679407208224</v>
       </c>
       <c r="P16" t="n">
-        <v>63.38922083378628</v>
+        <v>71.02584625906002</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.8611164554913</v>
+        <v>101.497741880765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_9</t>
+          <t>model_7_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9986472783359706</v>
+        <v>0.9999715019530869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9981524432387006</v>
+        <v>0.9991136281944424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9982756590734573</v>
+        <v>0.9999063379119907</v>
       </c>
       <c r="E17" t="n">
-        <v>0.998143971419364</v>
+        <v>0.9999837515024053</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9985080425906715</v>
+        <v>0.9999684825227448</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001262706295752963</v>
+        <v>2.660167587368996e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001724613138304073</v>
+        <v>0.0008273891732625</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001389374030405733</v>
+        <v>3.171942872491851e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001929411157997412</v>
+        <v>2.00127249002897e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007911575731027369</v>
+        <v>2.586607681260411e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004180135771232674</v>
+        <v>0.000540528212654088</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03553457887400614</v>
+        <v>0.005157681249717741</v>
       </c>
       <c r="N17" t="n">
-        <v>1.032465319936707</v>
+        <v>1.000683953125914</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03704735946339149</v>
+        <v>0.005377254418390279</v>
       </c>
       <c r="P17" t="n">
-        <v>63.3489960151738</v>
+        <v>71.06907268278182</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.82089163687883</v>
+        <v>101.5409683044868</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_8</t>
+          <t>model_7_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.998619798839958</v>
+        <v>0.99997209178542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9981283332328986</v>
+        <v>0.9991134808057764</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9982382323441505</v>
+        <v>0.9999080374206444</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9981175019516023</v>
+        <v>0.999984276080811</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9984770138974561</v>
+        <v>0.9999692268098678</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001288357199070211</v>
+        <v>2.60510932813824e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001747118770413301</v>
+        <v>0.0008275267541124949</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001419530320812968</v>
+        <v>3.114387628150034e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001956927160163649</v>
+        <v>1.93666194212447e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0008076115184146663</v>
+        <v>2.525524785137252e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004221955837045715</v>
+        <v>0.0005338496785088368</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03589369302635507</v>
+        <v>0.005104027163072547</v>
       </c>
       <c r="N18" t="n">
-        <v>1.033124827841008</v>
+        <v>1.00066979714992</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03742176184867469</v>
+        <v>0.005321316166197329</v>
       </c>
       <c r="P18" t="n">
-        <v>63.3087747225555</v>
+        <v>71.11090164414082</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.78067034426051</v>
+        <v>101.5827972658458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_7</t>
+          <t>model_7_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9985917608568754</v>
+        <v>0.999972700597528</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9981036755804303</v>
+        <v>0.9991131580792452</v>
       </c>
       <c r="D19" t="n">
-        <v>0.998199965427748</v>
+        <v>0.9999101434556169</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9980906835470348</v>
+        <v>0.9999848010078343</v>
       </c>
       <c r="F19" t="n">
-        <v>0.998445312686688</v>
+        <v>0.9999700552352383</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00131452942555257</v>
+        <v>2.548279390236241e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001770135606646559</v>
+        <v>0.0008278280051633638</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001450363585311262</v>
+        <v>3.04306503901938e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001984805895196205</v>
+        <v>1.872008456184035e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0008244220874154411</v>
+        <v>2.457536747601707e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004264195511923017</v>
+        <v>0.0005269238368753226</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03625643978043859</v>
+        <v>0.005048048524168762</v>
       </c>
       <c r="N19" t="n">
-        <v>1.03379773943499</v>
+        <v>1.000655185659329</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03779995148306884</v>
+        <v>0.005262954400743652</v>
       </c>
       <c r="P19" t="n">
-        <v>63.26855305737457</v>
+        <v>71.15501416494473</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.74044867907958</v>
+        <v>101.6269097866497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_6</t>
+          <t>model_7_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9985631369687444</v>
+        <v>0.9999732864132684</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9980784448986558</v>
+        <v>0.9991128321859911</v>
       </c>
       <c r="D20" t="n">
-        <v>0.998160856720662</v>
+        <v>0.999912114964437</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9980634882771126</v>
+        <v>0.9999853068116773</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9984129350025865</v>
+        <v>0.9999708415547252</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001341248568679381</v>
+        <v>2.493596062299729e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0017936873405841</v>
+        <v>0.0008281322122109592</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001481875115978752</v>
+        <v>2.976298287575282e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002013076395866337</v>
+        <v>1.809710307653684e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0008415913777826928</v>
+        <v>2.393004297614483e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004306876119541978</v>
+        <v>0.0005201639127961599</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03662306061321721</v>
+        <v>0.004993591955996934</v>
       </c>
       <c r="N20" t="n">
-        <v>1.034484712750134</v>
+        <v>1.000641126081558</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0381821801237086</v>
+        <v>0.005206179503724113</v>
       </c>
       <c r="P20" t="n">
-        <v>63.22830866234834</v>
+        <v>71.19839918924629</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.70020428405336</v>
+        <v>101.6702948109513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_5</t>
+          <t>model_7_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9985339349724355</v>
+        <v>0.9999738742087846</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998052629778132</v>
+        <v>0.9991125158281952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9981209608000654</v>
+        <v>0.9999140814839238</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9980360541019764</v>
+        <v>0.9999858122949901</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9983799358315935</v>
+        <v>0.9999716266042655</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001368507350414368</v>
+        <v>2.438727930986815e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00181778462244025</v>
+        <v>0.0008284275183269667</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001514020937691186</v>
+        <v>2.909700503963294e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002041595247445673</v>
+        <v>1.747451637759011e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0008590902312178768</v>
+        <v>2.328576070861152e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004349987579971746</v>
+        <v>0.000513309197153006</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03699334197412242</v>
+        <v>0.004938347832004967</v>
       </c>
       <c r="N21" t="n">
-        <v>1.035185560661549</v>
+        <v>1.00062701898917</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03856822512873563</v>
+        <v>0.005148583523002705</v>
       </c>
       <c r="P21" t="n">
-        <v>63.18806931670237</v>
+        <v>71.2428978027389</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.65996493840738</v>
+        <v>101.7147934244439</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_4</t>
+          <t>model_7_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9985041456407033</v>
+        <v>0.9999744454397655</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9980262329979814</v>
+        <v>0.9991121903652994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9980802118103849</v>
+        <v>0.999915994812316</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9980083066623699</v>
+        <v>0.9999862953936789</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9983462578527227</v>
+        <v>0.9999723838820623</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001396314383985713</v>
+        <v>2.385406026330313e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001842424858026139</v>
+        <v>0.0008287313236539873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00154685411305453</v>
+        <v>2.844904080084003e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002070439749163555</v>
+        <v>1.687950006283586e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0008769490439854428</v>
+        <v>2.266427043183794e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004393511220631723</v>
+        <v>0.0005072340510911975</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03736729029493191</v>
+        <v>0.00488406186112575</v>
       </c>
       <c r="N22" t="n">
-        <v>1.03590050462312</v>
+        <v>1.000613309445627</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03895809320374172</v>
+        <v>0.005091986485955709</v>
       </c>
       <c r="P22" t="n">
-        <v>63.14783819313656</v>
+        <v>71.28711222694292</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.61973381484158</v>
+        <v>101.7590078486479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_3</t>
+          <t>model_7_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9984737496031042</v>
+        <v>0.9999749952565554</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9979992358647019</v>
+        <v>0.9991119493934392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9980385999975669</v>
+        <v>0.9999176700463692</v>
       </c>
       <c r="E23" t="n">
-        <v>0.99798019569047</v>
+        <v>0.9999867663200429</v>
       </c>
       <c r="F23" t="n">
-        <v>0.998311888728398</v>
+        <v>0.9999730829010568</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001424687750852659</v>
+        <v>2.33408304241506e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001867625496905451</v>
+        <v>0.0008289562603081128</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001580382501320135</v>
+        <v>2.788170914852162e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002099662156303032</v>
+        <v>1.62994759889084e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0008951743584752191</v>
+        <v>2.209059256871501e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004437476444613278</v>
+        <v>0.0005014264153687904</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03774503610877408</v>
+        <v>0.004831234875696958</v>
       </c>
       <c r="N23" t="n">
-        <v>1.036630009525499</v>
+        <v>1.00060011384267</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03935192043892079</v>
+        <v>0.005036910546390278</v>
       </c>
       <c r="P23" t="n">
-        <v>63.10760522296192</v>
+        <v>71.33061270459579</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.57950084466694</v>
+        <v>101.8025083263008</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_2</t>
+          <t>model_7_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9984427467527034</v>
+        <v>0.9999755296551091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9979716323284242</v>
+        <v>0.9991116696495255</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9979960965568335</v>
+        <v>0.9999193269417809</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9979517658839777</v>
+        <v>0.9999872135592833</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9982768109559115</v>
+        <v>0.9999737603618737</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001453627550833976</v>
+        <v>2.284199283171394e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001893392186365389</v>
+        <v>0.0008292173889722313</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001614629311709492</v>
+        <v>2.732058802648599e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002129216003931414</v>
+        <v>1.574862654383121e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0009137754560513164</v>
+        <v>2.15346072851586e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00448185399095105</v>
+        <v>0.0004956824945570072</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03812646785153296</v>
+        <v>0.004779329747120818</v>
       </c>
       <c r="N24" t="n">
-        <v>1.037374077935119</v>
+        <v>1.000587288277383</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03974959052064147</v>
+        <v>0.004982795709032223</v>
       </c>
       <c r="P24" t="n">
-        <v>63.06738617508756</v>
+        <v>71.37381985031266</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.53928179679258</v>
+        <v>101.8457154720177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_1</t>
+          <t>model_7_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9984111008431112</v>
+        <v>0.9999760585112579</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9979433920109635</v>
+        <v>0.9991113611252317</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9979526851516051</v>
+        <v>0.9999210556330932</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979229684547234</v>
+        <v>0.9999876517364849</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9982410073417738</v>
+        <v>0.9999744458359846</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001483167618343348</v>
+        <v>2.234832883081648e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001919753283108297</v>
+        <v>0.0008295053828577593</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001649607707292049</v>
+        <v>2.673515263813922e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002159152009176394</v>
+        <v>1.520893850548394e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0009327614541048441</v>
+        <v>2.097204557181158e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004526704010518539</v>
+        <v>0.0004899740234775827</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03851191527752609</v>
+        <v>0.004727401911284514</v>
       </c>
       <c r="N25" t="n">
-        <v>1.03813357976533</v>
+        <v>1.00057459572981</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04015144724154529</v>
+        <v>0.004928657197718929</v>
       </c>
       <c r="P25" t="n">
-        <v>63.02715039136758</v>
+        <v>71.41751802474143</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.4990460130726</v>
+        <v>101.8894136464464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_0</t>
+          <t>model_7_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9983788173635523</v>
+        <v>0.9999765558742674</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9979145201622613</v>
+        <v>0.9991112053366666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.997908345025732</v>
+        <v>0.9999223916673542</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9978938465971949</v>
+        <v>0.9999880641458891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9982044663507231</v>
+        <v>0.9999750309592674</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001513302829430737</v>
+        <v>2.188406229326236e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001946703886544093</v>
+        <v>0.000829650804644901</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00168533441217086</v>
+        <v>2.628269375729146e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002189425269751833</v>
+        <v>1.470098779155495e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0009521384695730217</v>
+        <v>2.049184077442321e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004571988749084422</v>
+        <v>0.0004844585047828115</v>
       </c>
       <c r="M26" t="n">
-        <v>0.038901193162045</v>
+        <v>0.004678040433051254</v>
       </c>
       <c r="N26" t="n">
-        <v>1.038908383274745</v>
+        <v>1.000562659017583</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04055729749152448</v>
+        <v>0.004877194299164933</v>
       </c>
       <c r="P26" t="n">
-        <v>62.98692142512795</v>
+        <v>71.45950387049179</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.45881704683296</v>
+        <v>101.9313994921968</v>
       </c>
     </row>
   </sheetData>
